--- a/1월.xlsx
+++ b/1월.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anat0my\playground\janequiz\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\익명\playground\janequiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3F1A7B5-6803-4AAD-BDEA-2FDE66643AA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2B030C-BF58-440C-B9C6-BC2373E09D33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Total</t>
   </si>
@@ -87,17 +87,44 @@
   <si>
     <t>rest</t>
   </si>
+  <si>
+    <t>1개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞나?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -575,17 +602,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1:Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="19" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>14</v>
       </c>
@@ -636,7 +663,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>24</v>
       </c>
@@ -673,7 +700,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>24</v>
       </c>
@@ -712,7 +739,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>39</v>
       </c>
@@ -753,7 +780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>43</v>
       </c>
@@ -800,7 +827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>39</v>
       </c>
@@ -845,7 +872,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>22</v>
       </c>
@@ -888,7 +915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>23</v>
       </c>
@@ -927,7 +954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>29</v>
       </c>
@@ -964,7 +991,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>28</v>
       </c>
@@ -1005,7 +1032,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>34</v>
       </c>
@@ -1046,7 +1073,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>36</v>
       </c>
@@ -1089,7 +1116,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>29</v>
       </c>
@@ -1136,7 +1163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>26</v>
       </c>
@@ -1177,7 +1204,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>26</v>
       </c>
@@ -1218,7 +1245,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>24</v>
       </c>
@@ -1255,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>20</v>
       </c>
@@ -1281,7 +1308,7 @@
       <c r="R18" s="8"/>
       <c r="S18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B19" t="s">
         <v>1</v>
       </c>
@@ -1354,7 +1381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="B20" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1438,18 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C2:S18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="3"/>
+        <color theme="1"/>
+        <color theme="5" tint="0.79998168889431442"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1419,16 +1457,6 @@
         <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="3"/>
-        <color theme="1"/>
-        <color theme="5" tint="0.79998168889431442"/>
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
@@ -1451,840 +1479,1009 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AE7B4F-DEC1-4E66-B70B-71EA44628C43}">
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="19" width="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="3.58203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="T1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" t="s">
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>14</v>
       </c>
       <c r="B2">
-        <f>A2-SUM(C2:S2)</f>
+        <f>COUNTBLANK(D2:T2)</f>
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <f>A2-SUM(D2:T2)</f>
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14">
-        <v>3</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="D2" s="1"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14">
         <v>3</v>
       </c>
       <c r="K2" s="2">
         <v>3</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="14"/>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
       <c r="Q2" s="14"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="3"/>
-      <c r="T2" t="s">
-        <v>3</v>
-      </c>
-      <c r="U2">
-        <f>SUM(C2:C18,D2:D3,D17,E3,D18:H18,G16:G17,H16)</f>
+      <c r="R2" s="14"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="3"/>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <f>SUM(D2:D18,E2:E3,E17,F3,E18:I18,H16:H17,I16)</f>
+        <v>16</v>
+      </c>
+      <c r="W2">
+        <f>COUNTBLANK(D2:D18) + COUNTBLANK(E2:E3) + COUNTBLANK(E17) + COUNTBLANK(F3) + COUNTBLANK(E18:I18) + COUNTBLANK(H16:H17) + COUNTBLANK(I16)</f>
+        <v>23</v>
+      </c>
+      <c r="X2">
+        <f>24-V2</f>
+        <v>8</v>
+      </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
+      <c r="Z2">
+        <v>4</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <f>480-AA2*27*5-Z2*8*5-Y2*5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <f>COUNTBLANK(D3:T3)</f>
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <f>A3-SUM(D3:T3)</f>
         <v>15</v>
       </c>
-      <c r="V2">
-        <f>24-U2</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>24</v>
-      </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B18" si="0">A3-SUM(C3:S3)</f>
+      <c r="D3" s="4"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3</v>
+      </c>
+      <c r="L3" s="8">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="6"/>
+      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <f>SUM(F2:G2,G3,H3:J5,G5:G6)</f>
+        <v>21</v>
+      </c>
+      <c r="W3">
+        <f>COUNTBLANK(F2:G2) + COUNTBLANK(G3) + COUNTBLANK(H3:J5) + COUNTBLANK(G5:G6)</f>
+        <v>7</v>
+      </c>
+      <c r="X3">
+        <f>24-V3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <f>COUNTBLANK(D4:T4)</f>
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <f>A4-SUM(D4:T4)</f>
         <v>15</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5">
-        <v>3</v>
-      </c>
-      <c r="K3" s="8">
-        <v>3</v>
-      </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="6"/>
-      <c r="T3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U3">
-        <f>SUM(E2:F2,F3,G3:I5,F5:F6)</f>
-        <v>12</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V17" si="1">24-U3</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="5"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="6">
-        <v>3</v>
-      </c>
-      <c r="J4" s="13">
-        <v>3</v>
-      </c>
-      <c r="K4" s="15">
-        <v>3</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="6"/>
-      <c r="T4" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="6">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13">
+        <v>3</v>
+      </c>
+      <c r="L4" s="15">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="6"/>
+      <c r="U4" t="s">
         <v>5</v>
       </c>
-      <c r="U4">
-        <f>SUM(G2:I2,J2:L3,J4,L4:L5)</f>
+      <c r="V4">
+        <f>SUM(H2:J2,K2:M3,K4,M4:M5)</f>
         <v>18</v>
       </c>
-      <c r="V4">
-        <f t="shared" si="1"/>
+      <c r="W4">
+        <f>COUNTBLANK(H2:J2) + COUNTBLANK(K2:M3) + COUNTBLANK(K4) + COUNTBLANK(M4:M5)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <f>24-V4</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>39</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="9">
-        <v>3</v>
-      </c>
-      <c r="J5" s="5">
-        <v>3</v>
-      </c>
-      <c r="K5" s="9">
-        <v>3</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="6"/>
+        <f>COUNTBLANK(D5:T5)</f>
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <f>A5-SUM(D5:T5)</f>
+        <v>12</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3</v>
+      </c>
+      <c r="G5" s="16">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="9"/>
       <c r="S5" s="6"/>
-      <c r="T5" t="s">
+      <c r="T5" s="6"/>
+      <c r="U5" t="s">
         <v>6</v>
       </c>
-      <c r="U5">
-        <f>SUM(M2:S2,R3,S3:S6,M3:M5,N5:O8,N9,O4:P4)</f>
-        <v>0</v>
-      </c>
       <c r="V5">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+        <f>SUM(N2:T2,S3,T3:T6,N3:N5,O5:P8,O9,P4:Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <f>COUNTBLANK(N2:T2)+COUNTBLANK(S3)+COUNTBLANK(T3:T6)+COUNTBLANK(N3:N5)+COUNTBLANK(O5:P8)+COUNTBLANK(O9)+COUNTBLANK(P4:Q4)</f>
+        <v>26</v>
+      </c>
+      <c r="X5">
+        <f>24-V5</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>43</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(D6:T6)</f>
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f>A6-SUM(D6:T6)</f>
         <v>12</v>
       </c>
-      <c r="C6" s="12">
-        <v>3</v>
-      </c>
       <c r="D6" s="12">
         <v>3</v>
       </c>
-      <c r="E6" s="15">
-        <v>3</v>
-      </c>
-      <c r="F6" s="13">
-        <v>3</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="H6" s="8">
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
         <v>3</v>
       </c>
       <c r="I6" s="8">
         <v>3</v>
       </c>
-      <c r="J6" s="9">
-        <v>3</v>
-      </c>
-      <c r="K6" s="6">
-        <v>3</v>
-      </c>
-      <c r="L6" s="10">
-        <v>2</v>
-      </c>
-      <c r="M6" s="6">
-        <v>2</v>
-      </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="10">
+        <v>2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>2</v>
+      </c>
+      <c r="O6" s="5"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="13"/>
-      <c r="T6" t="s">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="13"/>
+      <c r="U6" t="s">
         <v>7</v>
       </c>
-      <c r="U6">
-        <f>SUM(N3:Q3,N4,Q4:Q5,P5:P7,Q7:Q8)</f>
-        <v>0</v>
-      </c>
       <c r="V6">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+        <f>SUM(O3:R3,O4,R4:R5,Q5:Q7,R7:R8)</f>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <f>COUNTBLANK(O3:R3)+COUNTBLANK(O4)+COUNTBLANK(R4:R5)+COUNTBLANK(Q5:Q7)+COUNTBLANK(R7:R8)</f>
+        <v>12</v>
+      </c>
+      <c r="X6">
+        <f>24-V6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>39</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(D7:T7)</f>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f>A7-SUM(D7:T7)</f>
         <v>8</v>
       </c>
-      <c r="C7" s="12">
-        <v>3</v>
-      </c>
       <c r="D7" s="12">
         <v>3</v>
       </c>
-      <c r="E7" s="7">
-        <v>3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>3</v>
-      </c>
-      <c r="G7" s="13">
-        <v>3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>3</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="13">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
         <v>3</v>
       </c>
       <c r="J7" s="16">
         <v>3</v>
       </c>
-      <c r="K7" s="6">
-        <v>3</v>
-      </c>
-      <c r="L7" s="3">
-        <v>2</v>
-      </c>
-      <c r="M7" s="6">
-        <v>2</v>
-      </c>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="6"/>
-      <c r="T7" t="s">
+      <c r="K7" s="16">
+        <v>3</v>
+      </c>
+      <c r="L7" s="6">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="6"/>
+      <c r="U7" t="s">
         <v>8</v>
       </c>
-      <c r="U7">
-        <f>SUM(D4:E5,F4,D6:D16,E16:E17,F17)</f>
-        <v>9</v>
-      </c>
       <c r="V7">
-        <f t="shared" si="1"/>
+        <f>SUM(E4:F5,G4,E6:E16,F16:F17,G17)</f>
+        <v>12</v>
+      </c>
+      <c r="W7">
+        <f>COUNTBLANK(E4:F5)+COUNTBLANK(G4)+COUNTBLANK(E6:E16)+COUNTBLANK(F16:F17)+COUNTBLANK(G17)</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <f>24-V7</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>22</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>-4</v>
-      </c>
-      <c r="C8" s="12">
-        <v>3</v>
-      </c>
-      <c r="D8" s="12">
-        <v>3</v>
-      </c>
-      <c r="E8" s="15">
-        <v>3</v>
-      </c>
-      <c r="F8" s="7">
-        <v>3</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3</v>
-      </c>
-      <c r="H8" s="9">
-        <v>3</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>2</v>
-      </c>
-      <c r="K8" s="9">
-        <v>2</v>
-      </c>
-      <c r="L8" s="6">
+        <f>COUNTBLANK(D8:T8)</f>
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <f>A8-SUM(D8:T8)</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="9">
         <v>2</v>
       </c>
       <c r="M8" s="6">
         <v>2</v>
       </c>
-      <c r="N8" s="5"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="6"/>
-      <c r="T8" t="s">
+      <c r="N8" s="6">
+        <v>2</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="6"/>
+      <c r="U8" t="s">
         <v>9</v>
       </c>
-      <c r="U8">
-        <f>SUM(R4:R11,Q6,Q9,Q11,S7:S18,Q13:Q14,R14:R15,Q17:R18)</f>
-        <v>0</v>
-      </c>
       <c r="V8">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+        <f>SUM(S4:S11,R6,R9,R11,T7:T18,R13:R14,S14:S15,R17:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <f>COUNTBLANK(S4:S11)+COUNTBLANK(R6)+COUNTBLANK(R9)+COUNTBLANK(R11)+COUNTBLANK(T7:T18)+COUNTBLANK(R13:R14)+COUNTBLANK(S14:S15)+COUNTBLANK(R17:S18)</f>
+        <v>31</v>
+      </c>
+      <c r="X8">
+        <f>24-V8</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>23</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(D9:T9)</f>
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f>A9-SUM(D9:T9)</f>
         <v>6</v>
       </c>
-      <c r="C9" s="12"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3">
-        <v>3</v>
-      </c>
-      <c r="G9" s="13">
-        <v>3</v>
-      </c>
-      <c r="H9" s="16">
-        <v>3</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>2</v>
-      </c>
-      <c r="K9" s="8">
-        <v>2</v>
-      </c>
-      <c r="L9" s="9">
-        <v>2</v>
-      </c>
-      <c r="M9" s="6">
-        <v>2</v>
-      </c>
-      <c r="N9" s="9"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="6"/>
-      <c r="T9" t="s">
+      <c r="E9" s="12"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="13">
+        <v>3</v>
+      </c>
+      <c r="I9" s="16">
+        <v>3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2</v>
+      </c>
+      <c r="M9" s="9">
+        <v>2</v>
+      </c>
+      <c r="N9" s="6">
+        <v>2</v>
+      </c>
+      <c r="O9" s="9"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="6"/>
+      <c r="U9" t="s">
         <v>10</v>
       </c>
-      <c r="U9">
-        <f>SUM(K6:K8,I7:J8,H9:I10)</f>
-        <v>24</v>
-      </c>
       <c r="V9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+        <f>SUM(L6:L8,J7:K8,I9:J10)</f>
+        <v>24</v>
+      </c>
+      <c r="W9">
+        <f>COUNTBLANK(L6:L8)+COUNTBLANK(J7:K8)+COUNTBLANK(I9:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f>24-V9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>29</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(D10:T10)</f>
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f>A10-SUM(D10:T10)</f>
         <v>7</v>
       </c>
-      <c r="C10" s="12"/>
       <c r="D10" s="12"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="16">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3">
-        <v>3</v>
-      </c>
-      <c r="H10" s="7">
-        <v>3</v>
-      </c>
-      <c r="I10" s="9">
-        <v>2</v>
-      </c>
-      <c r="J10" s="6">
-        <v>2</v>
-      </c>
-      <c r="K10" s="14">
-        <v>3</v>
+      <c r="E10" s="12"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="16">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
       </c>
       <c r="L10" s="14">
         <v>3</v>
       </c>
-      <c r="M10" s="16">
-        <v>3</v>
-      </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="6"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="6"/>
-      <c r="T10" t="s">
+      <c r="M10" s="14">
+        <v>3</v>
+      </c>
+      <c r="N10" s="16">
+        <v>3</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="6"/>
+      <c r="U10" t="s">
         <v>11</v>
       </c>
-      <c r="U10">
-        <f>SUM(L6:M6,M7:M11,K10:L10,N10:O10,O9,O11)</f>
+      <c r="V10">
+        <f>SUM(M6:N6,N7:N11,L10:M10,O10:P10,P9,P11)</f>
         <v>22</v>
       </c>
-      <c r="V10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="W10">
+        <f>COUNTBLANK(M6:N6)+COUNTBLANK(N7:N11)+COUNTBLANK(L10:M10)+COUNTBLANK(O10:P10)+COUNTBLANK(P9)+COUNTBLANK(P11)</f>
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <f>24-V10</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>28</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(D11:T11)</f>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f>A11-SUM(D11:T11)</f>
         <v>15</v>
       </c>
-      <c r="C11" s="12"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
-        <v>2</v>
-      </c>
-      <c r="J11" s="9">
-        <v>2</v>
-      </c>
-      <c r="K11" s="10">
-        <v>3</v>
-      </c>
-      <c r="L11" s="3">
-        <v>3</v>
-      </c>
-      <c r="M11" s="13">
-        <v>3</v>
-      </c>
-      <c r="N11" s="15"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="6"/>
-      <c r="T11" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2</v>
+      </c>
+      <c r="L11" s="10">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="13">
+        <v>3</v>
+      </c>
+      <c r="O11" s="15"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="6"/>
+      <c r="U11" t="s">
         <v>12</v>
       </c>
-      <c r="U11">
-        <f>SUM(L7:L9,J9:K9,J10:J11,I11:I12,H12:H13,G13)</f>
-        <v>24</v>
-      </c>
       <c r="V11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+        <f>SUM(M7:M9,K9:L9,K10:K11,J11:J12,I12:I13,H13)</f>
+        <v>24</v>
+      </c>
+      <c r="W11">
+        <f>COUNTBLANK(M7:M9)+COUNTBLANK(K9:L9)+COUNTBLANK(K10:K11)+COUNTBLANK(J11:J12)+COUNTBLANK(I12:I13)+COUNTBLANK(H13)</f>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f>24-V11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>34</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(D12:T12)</f>
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <f>A12-SUM(D12:T12)</f>
         <v>13</v>
       </c>
-      <c r="C12" s="12"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12" s="16">
-        <v>2</v>
-      </c>
-      <c r="G12" s="9">
-        <v>2</v>
-      </c>
-      <c r="H12" s="16">
-        <v>2</v>
-      </c>
-      <c r="I12" s="9">
-        <v>2</v>
-      </c>
-      <c r="J12" s="16">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3</v>
-      </c>
-      <c r="L12" s="8">
-        <v>3</v>
-      </c>
-      <c r="M12" s="6">
-        <v>3</v>
-      </c>
-      <c r="N12" s="8"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>2</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3</v>
+      </c>
+      <c r="M12" s="8">
+        <v>3</v>
+      </c>
+      <c r="N12" s="6">
+        <v>3</v>
+      </c>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="6"/>
+      <c r="R12" s="8"/>
       <c r="S12" s="6"/>
-      <c r="T12" t="s">
+      <c r="T12" s="6"/>
+      <c r="U12" t="s">
         <v>13</v>
       </c>
-      <c r="U12">
-        <f>SUM(E8:E14,F9:F13,G10:G12,H11)</f>
-        <v>22</v>
-      </c>
       <c r="V12">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <f>SUM(F8:F14,G9:G13,H10:H12,I11)</f>
+        <v>19</v>
+      </c>
+      <c r="W12">
+        <f>COUNTBLANK(F8:F14)+COUNTBLANK(G9:G13)+COUNTBLANK(H10:H12)+COUNTBLANK(I11)</f>
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <f>24-V12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>36</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(D13:T13)</f>
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <f>A13-SUM(D13:T13)</f>
         <v>6</v>
       </c>
-      <c r="C13" s="12"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="5">
-        <v>2</v>
-      </c>
-      <c r="F13" s="9">
-        <v>2</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2</v>
-      </c>
-      <c r="H13" s="9">
-        <v>2</v>
-      </c>
-      <c r="I13" s="16">
+      <c r="E13" s="12"/>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9">
         <v>2</v>
       </c>
       <c r="J13" s="16">
         <v>2</v>
       </c>
-      <c r="K13" s="9">
-        <v>3</v>
-      </c>
-      <c r="L13" s="3">
-        <v>3</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="3">
-        <v>3</v>
-      </c>
-      <c r="O13" s="10">
-        <v>3</v>
-      </c>
-      <c r="P13" s="3">
-        <v>3</v>
-      </c>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="6"/>
-      <c r="T13" t="s">
+      <c r="K13" s="16">
+        <v>2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3</v>
+      </c>
+      <c r="P13" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>3</v>
+      </c>
+      <c r="R13" s="6"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="6"/>
+      <c r="U13" t="s">
         <v>14</v>
       </c>
-      <c r="U13">
-        <f>SUM(P8:P12,N11:N12,O12,Q10,Q12:R12,R13)</f>
-        <v>0</v>
-      </c>
       <c r="V13">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <f>SUM(Q8:Q12,O11:O12,P12,R10,R12:S12,S13)</f>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>COUNTBLANK(Q8:Q12)+COUNTBLANK(O11:O12)+COUNTBLANK(P12)+COUNTBLANK(R10)+COUNTBLANK(R12:S12)+COUNTBLANK(S13)</f>
+        <v>12</v>
+      </c>
+      <c r="X13">
+        <f>24-V13</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>29</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C14" s="12"/>
+        <f>COUNTBLANK(D14:T14)</f>
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f>A14-SUM(D14:T14)</f>
+        <v>6</v>
+      </c>
       <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <v>2</v>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="16">
+        <v>1</v>
       </c>
       <c r="H14" s="5">
         <v>2</v>
       </c>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5">
-        <v>3</v>
-      </c>
-      <c r="L14" s="8">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3">
-        <v>3</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3</v>
-      </c>
-      <c r="O14" s="11">
-        <v>3</v>
-      </c>
-      <c r="P14" s="6">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="6"/>
-      <c r="T14" t="s">
+      <c r="I14" s="5">
+        <v>2</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+      <c r="M14" s="8">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3</v>
+      </c>
+      <c r="O14" s="7">
+        <v>3</v>
+      </c>
+      <c r="P14" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>3</v>
+      </c>
+      <c r="R14" s="7"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="6"/>
+      <c r="U14" t="s">
         <v>15</v>
       </c>
-      <c r="U14">
-        <f>SUM(J12:K13,F14:J15,I13,E15,F16)</f>
-        <v>20</v>
-      </c>
       <c r="V14">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+        <f>SUM(K12:L13,G14:K15,J13,F15,G16)</f>
+        <v>24</v>
+      </c>
+      <c r="W14">
+        <f>COUNTBLANK(K12:L13)+COUNTBLANK(G14:K15)+COUNTBLANK(J13)+COUNTBLANK(F15)+COUNTBLANK(G16)</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f>24-V14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>26</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(D15:T15)</f>
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <f>A15-SUM(D15:T15)</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>3</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3</v>
+      </c>
+      <c r="N15" s="9">
+        <v>3</v>
+      </c>
+      <c r="O15" s="16">
+        <v>3</v>
+      </c>
+      <c r="P15" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>3</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="6"/>
+      <c r="U15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15">
+        <f>SUM(P13:Q13,O15:R15,N16:O16,R16:S16,Q14)</f>
+        <v>21</v>
+      </c>
+      <c r="W15">
+        <f>COUNTBLANK(P13:Q13)+COUNTBLANK(O15:R15)+COUNTBLANK(N16:O16)+COUNTBLANK(R16:S16)+COUNTBLANK(Q14)</f>
         <v>4</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="8">
-        <v>2</v>
-      </c>
-      <c r="H15" s="8">
-        <v>2</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>3</v>
-      </c>
-      <c r="L15" s="6">
-        <v>3</v>
-      </c>
-      <c r="M15" s="9">
-        <v>3</v>
-      </c>
-      <c r="N15" s="16">
-        <v>3</v>
-      </c>
-      <c r="O15" s="8">
-        <v>3</v>
-      </c>
-      <c r="P15" s="8">
-        <v>3</v>
-      </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="6"/>
-      <c r="T15" t="s">
-        <v>16</v>
-      </c>
-      <c r="U15">
-        <f>SUM(O13:P13,N15:Q15,M16:N16,Q16:R16,P14)</f>
-        <v>21</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X15">
+        <f>24-V15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>26</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="11">
-        <v>3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>3</v>
-      </c>
-      <c r="J16" s="7">
-        <v>3</v>
-      </c>
-      <c r="K16" s="9">
-        <v>3</v>
-      </c>
-      <c r="L16" s="6">
-        <v>3</v>
-      </c>
-      <c r="M16" s="8">
-        <v>3</v>
-      </c>
-      <c r="N16" s="9"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="6"/>
-      <c r="T16" t="s">
+        <f>COUNTBLANK(D16:T16)</f>
+        <v>9</v>
+      </c>
+      <c r="C16">
+        <f>A16-SUM(D16:T16)</f>
+        <v>6</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="7">
+        <v>3</v>
+      </c>
+      <c r="L16" s="9">
+        <v>3</v>
+      </c>
+      <c r="M16" s="6">
+        <v>3</v>
+      </c>
+      <c r="N16" s="8">
+        <v>3</v>
+      </c>
+      <c r="O16" s="9"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="6"/>
+      <c r="U16" t="s">
         <v>17</v>
       </c>
-      <c r="U16">
-        <f>SUM(L15:L16,J17:O17,O16,P16:P18)</f>
+      <c r="V16">
+        <f>SUM(M15:M16,K17:P17,P16,Q16:Q18)</f>
         <v>18</v>
       </c>
-      <c r="V16">
-        <f t="shared" si="1"/>
+      <c r="W16">
+        <f>COUNTBLANK(M15:M16)+COUNTBLANK(K17:P17)+COUNTBLANK(P16)+COUNTBLANK(Q16:Q18)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="X16">
+        <f>24-V16</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>24</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f>COUNTBLANK(D17:T17)</f>
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <f>A17-SUM(D17:T17)</f>
         <v>6</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="10">
-        <v>3</v>
-      </c>
-      <c r="I17" s="6">
-        <v>3</v>
-      </c>
-      <c r="J17" s="7">
-        <v>3</v>
-      </c>
-      <c r="K17" s="8">
+      <c r="D17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="10">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>3</v>
+      </c>
+      <c r="K17" s="7">
         <v>3</v>
       </c>
       <c r="L17" s="8">
@@ -2293,41 +2490,49 @@
       <c r="M17" s="8">
         <v>3</v>
       </c>
-      <c r="N17" s="8"/>
+      <c r="N17" s="8">
+        <v>3</v>
+      </c>
       <c r="O17" s="8"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="5"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="6"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="6"/>
-      <c r="T17" t="s">
+      <c r="S17" s="5"/>
+      <c r="T17" s="6"/>
+      <c r="U17" t="s">
         <v>18</v>
       </c>
-      <c r="U17">
-        <f>SUM(I16,H17:I17,I18:O18)</f>
-        <v>24</v>
-      </c>
       <c r="V17">
-        <f>24-U17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+        <f>SUM(J16,I17:J17,J18:P18)</f>
+        <v>24</v>
+      </c>
+      <c r="W17">
+        <f>COUNTBLANK(J16)+COUNTBLANK(I17:J17)+COUNTBLANK(J18:P18)</f>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f>24-V17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>20</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
+        <f>COUNTBLANK(D18:T18)</f>
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <f>A18-SUM(D18:T18)</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="7"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="11">
-        <v>3</v>
-      </c>
-      <c r="I18" s="8">
+      <c r="H18" s="8"/>
+      <c r="I18" s="11">
         <v>3</v>
       </c>
       <c r="J18" s="8">
@@ -2342,144 +2547,235 @@
       <c r="M18" s="8">
         <v>3</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="8"/>
+      <c r="N18" s="8">
+        <v>3</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13"/>
       <c r="R18" s="8"/>
-      <c r="S18" s="9"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="S18" s="8"/>
+      <c r="T18" s="9"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="C19">
-        <f>C20-SUM(C2:C18)</f>
+      <c r="D19">
+        <f>D21-SUM(D2:D18)</f>
         <v>4</v>
       </c>
-      <c r="D19">
-        <f t="shared" ref="D19:S19" si="2">D20-SUM(D2:D18)</f>
+      <c r="E19">
+        <f>E21-SUM(E2:E18)</f>
         <v>11</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
       <c r="F19">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f>F21-SUM(F2:F18)</f>
+        <v>8</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f>G21-SUM(G2:G18)</f>
+        <v>3</v>
       </c>
       <c r="H19">
-        <f t="shared" si="2"/>
+        <f>H21-SUM(H2:H18)</f>
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <f>I21-SUM(I2:I18)</f>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f>J21-SUM(J2:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>K21-SUM(K2:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>L21-SUM(L2:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f>M21-SUM(M2:M18)</f>
         <v>4</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="2"/>
+      <c r="N19">
+        <f>N21-SUM(N2:N18)</f>
         <v>4</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="2"/>
+      <c r="O19">
+        <f>O21-SUM(O2:O18)</f>
+        <v>13</v>
+      </c>
+      <c r="P19">
+        <f>P21-SUM(P2:P18)</f>
+        <v>14</v>
+      </c>
+      <c r="Q19">
+        <f>Q21-SUM(Q2:Q18)</f>
+        <v>23</v>
+      </c>
+      <c r="R19">
+        <f>R21-SUM(R2:R18)</f>
+        <v>23</v>
+      </c>
+      <c r="S19">
+        <f>S21-SUM(S2:S18)</f>
+        <v>17</v>
+      </c>
+      <c r="T19">
+        <f>T21-SUM(T2:T18)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20">
+        <f>COUNTBLANK(D2:D18)</f>
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <f>COUNTBLANK(E2:E18)</f>
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <f>COUNTBLANK(F2:F18)</f>
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <f>COUNTBLANK(G2:G18)</f>
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <f>COUNTBLANK(H2:H18)</f>
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <f>COUNTBLANK(I2:I18)</f>
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <f>COUNTBLANK(J2:J18)</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>COUNTBLANK(K2:K18)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>COUNTBLANK(L2:L18)</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>COUNTBLANK(M2:M18)</f>
         <v>4</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="2"/>
+      <c r="N20">
+        <f>COUNTBLANK(N2:N18)</f>
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <f>COUNTBLANK(O2:O18)</f>
         <v>13</v>
       </c>
-      <c r="O19">
-        <f t="shared" si="2"/>
+      <c r="P20">
+        <f>COUNTBLANK(P2:P18)</f>
+        <v>13</v>
+      </c>
+      <c r="Q20">
+        <f>COUNTBLANK(Q2:Q18)</f>
         <v>14</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="2"/>
+      <c r="R20">
+        <f>COUNTBLANK(R2:R18)</f>
+        <v>17</v>
+      </c>
+      <c r="S20">
+        <f>COUNTBLANK(S2:S18)</f>
+        <v>17</v>
+      </c>
+      <c r="T20">
+        <f>COUNTBLANK(T2:T18)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>36</v>
+      </c>
+      <c r="J21">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>39</v>
+      </c>
+      <c r="L21">
+        <v>49</v>
+      </c>
+      <c r="M21">
+        <v>39</v>
+      </c>
+      <c r="N21">
+        <v>39</v>
+      </c>
+      <c r="O21">
+        <v>22</v>
+      </c>
+      <c r="P21">
         <v>23</v>
       </c>
-      <c r="Q19">
-        <f t="shared" si="2"/>
+      <c r="Q21">
+        <v>32</v>
+      </c>
+      <c r="R21">
         <v>23</v>
       </c>
-      <c r="R19">
-        <f t="shared" si="2"/>
+      <c r="S21">
         <v>17</v>
       </c>
-      <c r="S19">
-        <f t="shared" si="2"/>
+      <c r="T21">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>22</v>
-      </c>
-      <c r="F20">
-        <v>28</v>
-      </c>
-      <c r="G20">
-        <v>30</v>
-      </c>
-      <c r="H20">
-        <v>36</v>
-      </c>
-      <c r="I20">
-        <v>35</v>
-      </c>
-      <c r="J20">
-        <v>39</v>
-      </c>
-      <c r="K20">
-        <v>49</v>
-      </c>
-      <c r="L20">
-        <v>39</v>
-      </c>
-      <c r="M20">
-        <v>39</v>
-      </c>
-      <c r="N20">
-        <v>22</v>
-      </c>
-      <c r="O20">
-        <v>23</v>
-      </c>
-      <c r="P20">
-        <v>32</v>
-      </c>
-      <c r="Q20">
-        <v>23</v>
-      </c>
-      <c r="R20">
-        <v>17</v>
-      </c>
-      <c r="S20">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:S18">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:T18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="3"/>
+        <color theme="1"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2490,18 +2786,8 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <cfvo type="num" val="3"/>
-        <color theme="1"/>
-        <color theme="7" tint="0.79998168889431442"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V2:V17">
+  <conditionalFormatting sqref="X2:X17">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -2514,5 +2800,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1월.xlsx
+++ b/1월.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\익명\playground\janequiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2B030C-BF58-440C-B9C6-BC2373E09D33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0F42CD-37E9-423D-B186-4ECD0FA75540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="기본" sheetId="1" r:id="rId1"/>
     <sheet name="3 2개로 테스트" sheetId="2" r:id="rId2"/>
+    <sheet name="3 2개로 테스트 이어서" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="29">
   <si>
     <t>Total</t>
   </si>
@@ -100,11 +101,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맞나?</t>
+    <t>Em</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Em</t>
+    <t xml:space="preserve">필요 칸 수 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>총 칸 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Answer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -112,7 +129,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +139,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -302,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -320,6 +346,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1479,25 +1507,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AE7B4F-DEC1-4E66-B70B-71EA44628C43}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView zoomScale="67" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="19" width="3.58203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.4140625" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="8.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1506,7 +1535,7 @@
         <v>2</v>
       </c>
       <c r="W1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X1" t="s">
         <v>19</v>
@@ -1521,27 +1550,38 @@
         <v>22</v>
       </c>
       <c r="AB1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>14</v>
       </c>
       <c r="B2">
-        <f>COUNTBLANK(D2:T2)</f>
-        <v>14</v>
+        <f t="shared" ref="B2:B18" si="0">COUNTBLANK(D2:T2)</f>
+        <v>2</v>
       </c>
       <c r="C2">
-        <f>A2-SUM(D2:T2)</f>
-        <v>5</v>
+        <f t="shared" ref="C2:C18" si="1">A2-SUM(D2:T2)</f>
+        <v>1</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="14"/>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14">
+        <v>1</v>
+      </c>
       <c r="J2" s="14">
         <v>3</v>
       </c>
@@ -1551,61 +1591,94 @@
       <c r="L2" s="2">
         <v>3</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="3"/>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
       <c r="U2" t="s">
         <v>3</v>
       </c>
       <c r="V2">
         <f>SUM(D2:D18,E2:E3,E17,F3,E18:I18,H16:H17,I16)</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="W2">
         <f>COUNTBLANK(D2:D18) + COUNTBLANK(E2:E3) + COUNTBLANK(E17) + COUNTBLANK(F3) + COUNTBLANK(E18:I18) + COUNTBLANK(H16:H17) + COUNTBLANK(I16)</f>
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="X2">
-        <f>24-V2</f>
-        <v>8</v>
+        <f t="shared" ref="X2:X17" si="2">24-V2</f>
+        <v>3</v>
       </c>
       <c r="Y2">
-        <v>10</v>
+        <f>480/5-AA2*27-Z2*8</f>
+        <v>2</v>
       </c>
       <c r="Z2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AA2">
         <v>2</v>
       </c>
       <c r="AB2">
-        <f>480-AA2*27*5-Z2*8*5-Y2*5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+        <f>(Y2+4*Z2+9*AA2)*5</f>
+        <v>200</v>
+      </c>
+      <c r="AC2">
+        <f>17*17</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>24</v>
       </c>
       <c r="B3">
-        <f>COUNTBLANK(D3:T3)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C3">
-        <f>A3-SUM(D3:T3)</f>
-        <v>15</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
       <c r="J3" s="3">
         <v>3</v>
       </c>
@@ -1615,48 +1688,84 @@
       <c r="L3" s="8">
         <v>3</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="6"/>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
+        <v>2</v>
+      </c>
+      <c r="P3" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
       <c r="U3" t="s">
         <v>4</v>
       </c>
       <c r="V3">
         <f>SUM(F2:G2,G3,H3:J5,G5:G6)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="W3">
         <f>COUNTBLANK(F2:G2) + COUNTBLANK(G3) + COUNTBLANK(H3:J5) + COUNTBLANK(G5:G6)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <f>24-V3</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <f>480/5-AA3*27-Z3*8</f>
+        <v>10</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="18">
+        <f>(Y3+4*Z3+9*AA3)*5</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>24</v>
       </c>
       <c r="B4">
-        <f>COUNTBLANK(D4:T4)</f>
-        <v>14</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C4">
-        <f>A4-SUM(D4:T4)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
       <c r="J4" s="6">
         <v>3</v>
       </c>
@@ -1666,41 +1775,71 @@
       <c r="L4" s="15">
         <v>3</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="6"/>
+      <c r="M4" s="6">
+        <v>2</v>
+      </c>
+      <c r="N4" s="12">
+        <v>2</v>
+      </c>
+      <c r="O4" s="13">
+        <v>2</v>
+      </c>
+      <c r="P4" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>2</v>
+      </c>
+      <c r="R4" s="6">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
       <c r="U4" t="s">
         <v>5</v>
       </c>
       <c r="V4">
         <f>SUM(H2:J2,K2:M3,K4,M4:M5)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="W4">
         <f>COUNTBLANK(H2:J2) + COUNTBLANK(K2:M3) + COUNTBLANK(K4) + COUNTBLANK(M4:M5)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <f>24-V4</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>480/5-AA4*27-Z4*8</f>
+        <v>18</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <f>(Y4+4*Z4+9*AA4)*5</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>39</v>
       </c>
       <c r="B5">
-        <f>COUNTBLANK(D5:T5)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C5">
-        <f>A5-SUM(D5:T5)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D5" s="12">
         <v>3</v>
@@ -1729,41 +1868,57 @@
       <c r="L5" s="9">
         <v>3</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
+      <c r="M5" s="9">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>2</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2</v>
+      </c>
+      <c r="T5" s="6">
+        <v>2</v>
+      </c>
       <c r="U5" t="s">
         <v>6</v>
       </c>
       <c r="V5">
         <f>SUM(N2:T2,S3,T3:T6,N3:N5,O5:P8,O9,P4:Q4)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W5">
         <f>COUNTBLANK(N2:T2)+COUNTBLANK(S3)+COUNTBLANK(T3:T6)+COUNTBLANK(N3:N5)+COUNTBLANK(O5:P8)+COUNTBLANK(O9)+COUNTBLANK(P4:Q4)</f>
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <f>24-V5</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>43</v>
       </c>
       <c r="B6">
-        <f>COUNTBLANK(D6:T6)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C6">
-        <f>A6-SUM(D6:T6)</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D6" s="12">
         <v>3</v>
@@ -1798,39 +1953,51 @@
       <c r="N6" s="6">
         <v>2</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="13"/>
+      <c r="O6" s="16">
+        <v>2</v>
+      </c>
+      <c r="P6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>2</v>
+      </c>
+      <c r="R6" s="8">
+        <v>2</v>
+      </c>
+      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="13">
+        <v>2</v>
+      </c>
       <c r="U6" t="s">
         <v>7</v>
       </c>
       <c r="V6">
         <f>SUM(O3:R3,O4,R4:R5,Q5:Q7,R7:R8)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W6">
         <f>COUNTBLANK(O3:R3)+COUNTBLANK(O4)+COUNTBLANK(R4:R5)+COUNTBLANK(Q5:Q7)+COUNTBLANK(R7:R8)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <f>24-V6</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>39</v>
       </c>
       <c r="B7">
-        <f>COUNTBLANK(D7:T7)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C7">
-        <f>A7-SUM(D7:T7)</f>
-        <v>8</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="D7" s="12">
         <v>3</v>
@@ -1865,39 +2032,51 @@
       <c r="N7" s="6">
         <v>2</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="6"/>
+      <c r="O7" s="5">
+        <v>2</v>
+      </c>
+      <c r="P7" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>2</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
       <c r="U7" t="s">
         <v>8</v>
       </c>
       <c r="V7">
         <f>SUM(E4:F5,G4,E6:E16,F16:F17,G17)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W7">
         <f>COUNTBLANK(E4:F5)+COUNTBLANK(G4)+COUNTBLANK(E6:E16)+COUNTBLANK(F16:F17)+COUNTBLANK(G17)</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X7">
-        <f>24-V7</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>22</v>
       </c>
       <c r="B8">
-        <f>COUNTBLANK(D8:T8)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C8">
-        <f>A8-SUM(D8:T8)</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1926,39 +2105,51 @@
       <c r="N8" s="6">
         <v>2</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="6"/>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>2</v>
+      </c>
+      <c r="R8" s="9">
+        <v>2</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
       <c r="U8" t="s">
         <v>9</v>
       </c>
       <c r="V8">
         <f>SUM(S4:S11,R6,R9,R11,T7:T18,R13:R14,S14:S15,R17:S18)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W8">
         <f>COUNTBLANK(S4:S11)+COUNTBLANK(R6)+COUNTBLANK(R9)+COUNTBLANK(R11)+COUNTBLANK(T7:T18)+COUNTBLANK(R13:R14)+COUNTBLANK(S14:S15)+COUNTBLANK(R17:S18)</f>
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <f>24-V8</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>23</v>
       </c>
       <c r="B9">
-        <f>COUNTBLANK(D9:T9)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C9">
-        <f>A9-SUM(D9:T9)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
@@ -1987,12 +2178,24 @@
       <c r="N9" s="6">
         <v>2</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="6"/>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>2</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
       <c r="U9" t="s">
         <v>10</v>
       </c>
@@ -2005,25 +2208,31 @@
         <v>0</v>
       </c>
       <c r="X9">
-        <f>24-V9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>29</v>
       </c>
       <c r="B10">
-        <f>COUNTBLANK(D10:T10)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C10">
-        <f>A10-SUM(D10:T10)</f>
-        <v>7</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="5"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
       <c r="G10" s="16">
         <v>3</v>
       </c>
@@ -2048,39 +2257,51 @@
       <c r="N10" s="16">
         <v>3</v>
       </c>
-      <c r="O10" s="8"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="6"/>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>2</v>
+      </c>
+      <c r="R10" s="11">
+        <v>2</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
       <c r="U10" t="s">
         <v>11</v>
       </c>
       <c r="V10">
         <f>SUM(M6:N6,N7:N11,L10:M10,O10:P10,P9,P11)</f>
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="W10">
         <f>COUNTBLANK(M6:N6)+COUNTBLANK(N7:N11)+COUNTBLANK(L10:M10)+COUNTBLANK(O10:P10)+COUNTBLANK(P9)+COUNTBLANK(P11)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <f>24-V10</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>28</v>
       </c>
       <c r="B11">
-        <f>COUNTBLANK(D11:T11)</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C11">
-        <f>A11-SUM(D11:T11)</f>
-        <v>15</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
@@ -2107,12 +2328,24 @@
       <c r="N11" s="13">
         <v>3</v>
       </c>
-      <c r="O11" s="15"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="6"/>
+      <c r="O11" s="15">
+        <v>2</v>
+      </c>
+      <c r="P11" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>2</v>
+      </c>
+      <c r="R11" s="7">
+        <v>2</v>
+      </c>
+      <c r="S11" s="8">
+        <v>2</v>
+      </c>
+      <c r="T11" s="6">
+        <v>2</v>
+      </c>
       <c r="U11" t="s">
         <v>12</v>
       </c>
@@ -2125,21 +2358,21 @@
         <v>0</v>
       </c>
       <c r="X11">
-        <f>24-V11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>34</v>
       </c>
       <c r="B12">
-        <f>COUNTBLANK(D12:T12)</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C12">
-        <f>A12-SUM(D12:T12)</f>
-        <v>13</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -2170,42 +2403,58 @@
       <c r="N12" s="6">
         <v>3</v>
       </c>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
+      <c r="O12" s="8">
+        <v>2</v>
+      </c>
+      <c r="P12" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>2</v>
+      </c>
+      <c r="R12" s="8">
+        <v>2</v>
+      </c>
+      <c r="S12" s="6">
+        <v>2</v>
+      </c>
+      <c r="T12" s="6">
+        <v>2</v>
+      </c>
       <c r="U12" t="s">
         <v>13</v>
       </c>
       <c r="V12">
         <f>SUM(F8:F14,G9:G13,H10:H12,I11)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="W12">
         <f>COUNTBLANK(F8:F14)+COUNTBLANK(G9:G13)+COUNTBLANK(H10:H12)+COUNTBLANK(I11)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X12">
-        <f>24-V12</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>36</v>
       </c>
       <c r="B13">
-        <f>COUNTBLANK(D13:T13)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="C13">
-        <f>A13-SUM(D13:T13)</f>
-        <v>6</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
       <c r="F13" s="5">
         <v>2</v>
       </c>
@@ -2242,36 +2491,42 @@
       <c r="Q13" s="3">
         <v>3</v>
       </c>
-      <c r="R13" s="6"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="6"/>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <v>2</v>
+      </c>
+      <c r="T13" s="6">
+        <v>2</v>
+      </c>
       <c r="U13" t="s">
         <v>14</v>
       </c>
       <c r="V13">
         <f>SUM(Q8:Q12,O11:O12,P12,R10,R12:S12,S13)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="W13">
         <f>COUNTBLANK(Q8:Q12)+COUNTBLANK(O11:O12)+COUNTBLANK(P12)+COUNTBLANK(R10)+COUNTBLANK(R12:S12)+COUNTBLANK(S13)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <f>24-V13</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>29</v>
       </c>
       <c r="B14">
-        <f>COUNTBLANK(D14:T14)</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C14">
-        <f>A14-SUM(D14:T14)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -2309,9 +2564,15 @@
       <c r="Q14" s="6">
         <v>3</v>
       </c>
-      <c r="R14" s="7"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="6"/>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <v>2</v>
+      </c>
+      <c r="T14" s="6">
+        <v>2</v>
+      </c>
       <c r="U14" t="s">
         <v>15</v>
       </c>
@@ -2324,21 +2585,21 @@
         <v>0</v>
       </c>
       <c r="X14">
-        <f>24-V14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>26</v>
       </c>
       <c r="B15">
-        <f>COUNTBLANK(D15:T15)</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="C15">
-        <f>A15-SUM(D15:T15)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
@@ -2378,36 +2639,42 @@
       <c r="Q15" s="8">
         <v>3</v>
       </c>
-      <c r="R15" s="6"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="6"/>
+      <c r="R15" s="6">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0</v>
+      </c>
       <c r="U15" t="s">
         <v>16</v>
       </c>
       <c r="V15">
         <f>SUM(P13:Q13,O15:R15,N16:O16,R16:S16,Q14)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="W15">
         <f>COUNTBLANK(P13:Q13)+COUNTBLANK(O15:R15)+COUNTBLANK(N16:O16)+COUNTBLANK(R16:S16)+COUNTBLANK(Q14)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <f>24-V15</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>26</v>
       </c>
       <c r="B16">
-        <f>COUNTBLANK(D16:T16)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="C16">
-        <f>A16-SUM(D16:T16)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D16" s="12"/>
       <c r="E16" s="7"/>
@@ -2436,26 +2703,38 @@
       <c r="N16" s="8">
         <v>3</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="6"/>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="8">
+        <v>1</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
       <c r="U16" t="s">
         <v>17</v>
       </c>
       <c r="V16">
         <f>SUM(M15:M16,K17:P17,P16,Q16:Q18)</f>
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="W16">
         <f>COUNTBLANK(M15:M16)+COUNTBLANK(K17:P17)+COUNTBLANK(P16)+COUNTBLANK(Q16:Q18)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <f>24-V16</f>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.45">
@@ -2463,18 +2742,20 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <f>COUNTBLANK(D17:T17)</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C17">
-        <f>A17-SUM(D17:T17)</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="3"/>
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
       <c r="I17" s="10">
         <v>3</v>
       </c>
@@ -2493,12 +2774,24 @@
       <c r="N17" s="8">
         <v>3</v>
       </c>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="6"/>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="16">
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <v>1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
       <c r="U17" t="s">
         <v>18</v>
       </c>
@@ -2511,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="X17">
-        <f>24-V17</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2520,18 +2813,20 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <f>COUNTBLANK(D18:T18)</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="C18">
-        <f>A18-SUM(D18:T18)</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
       <c r="I18" s="11">
         <v>3</v>
       </c>
@@ -2556,155 +2851,1915 @@
       <c r="P18" s="11">
         <v>0</v>
       </c>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="8"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="9"/>
+      <c r="Q18" s="13">
+        <v>1</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C19" t="s">
         <v>1</v>
       </c>
       <c r="D19">
-        <f>D21-SUM(D2:D18)</f>
-        <v>4</v>
+        <f t="shared" ref="D19:T19" si="3">D21-SUM(D2:D18)</f>
+        <v>1</v>
       </c>
       <c r="E19">
-        <f>E21-SUM(E2:E18)</f>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
       </c>
       <c r="F19">
-        <f>F21-SUM(F2:F18)</f>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
       </c>
       <c r="G19">
-        <f>G21-SUM(G2:G18)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H19">
-        <f>H21-SUM(H2:H18)</f>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I19">
-        <f>I21-SUM(I2:I18)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J19">
-        <f>J21-SUM(J2:J18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K19">
-        <f>K21-SUM(K2:K18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L19">
-        <f>L21-SUM(L2:L18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M19">
-        <f>M21-SUM(M2:M18)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="N19">
-        <f>N21-SUM(N2:N18)</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="O19">
-        <f>O21-SUM(O2:O18)</f>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="P19">
-        <f>P21-SUM(P2:P18)</f>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <f>Q21-SUM(Q2:Q18)</f>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="R19">
-        <f>R21-SUM(R2:R18)</f>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="S19">
-        <f>S21-SUM(S2:S18)</f>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="T19">
-        <f>T21-SUM(T2:T18)</f>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.45">
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <f>COUNTBLANK(D2:D18)</f>
+        <f t="shared" ref="D20:T20" si="4">COUNTBLANK(D2:D18)</f>
+        <v>11</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>22</v>
+      </c>
+      <c r="G21">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>30</v>
+      </c>
+      <c r="I21">
+        <v>36</v>
+      </c>
+      <c r="J21">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>39</v>
+      </c>
+      <c r="L21">
+        <v>49</v>
+      </c>
+      <c r="M21">
+        <v>39</v>
+      </c>
+      <c r="N21">
+        <v>39</v>
+      </c>
+      <c r="O21">
+        <v>22</v>
+      </c>
+      <c r="P21">
+        <v>23</v>
+      </c>
+      <c r="Q21">
+        <v>32</v>
+      </c>
+      <c r="R21">
+        <v>23</v>
+      </c>
+      <c r="S21">
+        <v>17</v>
+      </c>
+      <c r="T21">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="D2:T18">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="3"/>
+        <color theme="1"/>
+        <color theme="7" tint="0.79998168889431442"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X2:X17">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <cfvo type="num" val="24"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93720D5B-3246-4B55-A5FD-BC17D582BF18}">
+  <dimension ref="A1:AF21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="3.58203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.4140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>2</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A2">
         <v>14</v>
       </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B18" si="0">COUNTBLANK(D2:T2)</f>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C18" si="1">A2-SUM(D2:T2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14">
+        <v>1</v>
+      </c>
+      <c r="J2" s="14">
+        <v>3</v>
+      </c>
+      <c r="K2" s="2">
+        <v>3</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="14">
+        <v>0</v>
+      </c>
+      <c r="P2" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>0</v>
+      </c>
+      <c r="R2" s="14">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <f>SUM(D2:D18,E2:E3,E17,F3,E18:I18,H16:H17,I16)</f>
+        <v>24</v>
+      </c>
+      <c r="W2">
+        <f>COUNTBLANK(D2:D18) + COUNTBLANK(E2:E3) + COUNTBLANK(E17) + COUNTBLANK(F3) + COUNTBLANK(E18:I18) + COUNTBLANK(H16:H17) + COUNTBLANK(I16)</f>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" ref="X2:X17" si="2">24-V2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f>480/5-AA2*27-Z2*8</f>
+        <v>2</v>
+      </c>
+      <c r="Z2">
+        <v>5</v>
+      </c>
+      <c r="AA2">
+        <v>2</v>
+      </c>
+      <c r="AB2">
+        <f>(Y2+4*Z2+9*AA2)*5</f>
+        <v>200</v>
+      </c>
+      <c r="AC2">
+        <f>17*17</f>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
+        <v>3</v>
+      </c>
+      <c r="L3" s="8">
+        <v>3</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="16">
+        <v>2</v>
+      </c>
+      <c r="P3" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>2</v>
+      </c>
+      <c r="S3" s="7">
+        <v>1</v>
+      </c>
+      <c r="T3" s="6">
+        <v>1</v>
+      </c>
+      <c r="U3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3">
+        <f>SUM(F2:G2,G3,H3:J5,G5:G6)</f>
+        <v>24</v>
+      </c>
+      <c r="W3">
+        <f>COUNTBLANK(F2:G2) + COUNTBLANK(G3) + COUNTBLANK(H3:J5) + COUNTBLANK(G5:G6)</f>
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="18">
+        <f>480/5-AA3*27-Z3*8</f>
+        <v>10</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>4</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="18">
+        <f>(Y3+4*Z3+9*AA3)*5</f>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3</v>
+      </c>
+      <c r="K4" s="13">
+        <v>3</v>
+      </c>
+      <c r="L4" s="15">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2</v>
+      </c>
+      <c r="N4" s="12">
+        <v>2</v>
+      </c>
+      <c r="O4" s="13">
+        <v>2</v>
+      </c>
+      <c r="P4" s="17">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>2</v>
+      </c>
+      <c r="R4" s="6">
+        <v>2</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0</v>
+      </c>
+      <c r="U4" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <f>SUM(H2:J2,K2:M3,K4,M4:M5)</f>
+        <v>24</v>
+      </c>
+      <c r="W4">
+        <f>COUNTBLANK(H2:J2) + COUNTBLANK(K2:M3) + COUNTBLANK(K4) + COUNTBLANK(M4:M5)</f>
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <f>480/5-AA4*27-Z4*8</f>
+        <v>18</v>
+      </c>
+      <c r="Z4">
+        <v>3</v>
+      </c>
+      <c r="AA4">
+        <v>2</v>
+      </c>
+      <c r="AB4">
+        <f>(Y4+4*Z4+9*AA4)*5</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3</v>
+      </c>
+      <c r="G5" s="16">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8">
+        <v>3</v>
+      </c>
+      <c r="J5" s="9">
+        <v>3</v>
+      </c>
+      <c r="K5" s="5">
+        <v>3</v>
+      </c>
+      <c r="L5" s="9">
+        <v>3</v>
+      </c>
+      <c r="M5" s="9">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>2</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>2</v>
+      </c>
+      <c r="R5" s="9">
+        <v>2</v>
+      </c>
+      <c r="S5" s="6">
+        <v>2</v>
+      </c>
+      <c r="T5" s="6">
+        <v>2</v>
+      </c>
+      <c r="U5" t="s">
+        <v>6</v>
+      </c>
+      <c r="V5">
+        <f>SUM(N2:T2,S3,T3:T6,N3:N5,O5:P8,O9,P4:Q4)</f>
+        <v>24</v>
+      </c>
+      <c r="W5">
+        <f>COUNTBLANK(N2:T2)+COUNTBLANK(S3)+COUNTBLANK(T3:T6)+COUNTBLANK(N3:N5)+COUNTBLANK(O5:P8)+COUNTBLANK(O9)+COUNTBLANK(P4:Q4)</f>
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
+        <v>3</v>
+      </c>
+      <c r="E6" s="12">
+        <v>3</v>
+      </c>
+      <c r="F6" s="15">
+        <v>3</v>
+      </c>
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="8">
+        <v>3</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3</v>
+      </c>
+      <c r="L6" s="6">
+        <v>3</v>
+      </c>
+      <c r="M6" s="10">
+        <v>2</v>
+      </c>
+      <c r="N6" s="6">
+        <v>2</v>
+      </c>
+      <c r="O6" s="16">
+        <v>2</v>
+      </c>
+      <c r="P6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>2</v>
+      </c>
+      <c r="R6" s="8">
+        <v>2</v>
+      </c>
+      <c r="S6" s="6">
+        <v>2</v>
+      </c>
+      <c r="T6" s="13">
+        <v>2</v>
+      </c>
+      <c r="U6" t="s">
+        <v>7</v>
+      </c>
+      <c r="V6">
+        <f>SUM(O3:R3,O4,R4:R5,Q5:Q7,R7:R8)</f>
+        <v>24</v>
+      </c>
+      <c r="W6">
+        <f>COUNTBLANK(O3:R3)+COUNTBLANK(O4)+COUNTBLANK(R4:R5)+COUNTBLANK(Q5:Q7)+COUNTBLANK(R7:R8)</f>
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>39</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+      <c r="H7" s="13">
+        <v>3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>3</v>
+      </c>
+      <c r="J7" s="16">
+        <v>3</v>
+      </c>
+      <c r="K7" s="16">
+        <v>3</v>
+      </c>
+      <c r="L7" s="6">
+        <v>3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>2</v>
+      </c>
+      <c r="N7" s="6">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>2</v>
+      </c>
+      <c r="P7" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>2</v>
+      </c>
+      <c r="R7" s="6">
+        <v>2</v>
+      </c>
+      <c r="S7" s="16">
+        <v>0</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0</v>
+      </c>
+      <c r="U7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7">
+        <f>SUM(E4:F5,G4,E6:E16,F16:F17,G17)</f>
+        <v>24</v>
+      </c>
+      <c r="W7">
+        <f>COUNTBLANK(E4:F5)+COUNTBLANK(G4)+COUNTBLANK(E6:E16)+COUNTBLANK(F16:F17)+COUNTBLANK(G17)</f>
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8" s="9">
+        <v>3</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>2</v>
+      </c>
+      <c r="N8" s="6">
+        <v>2</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="15">
+        <v>2</v>
+      </c>
+      <c r="R8" s="9">
+        <v>2</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0</v>
+      </c>
+      <c r="U8" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8">
+        <f>SUM(S4:S11,R6,R9,R11,T7:T18,R13:R14,S14:S15,R17:S18)</f>
+        <v>24</v>
+      </c>
+      <c r="W8">
+        <f>COUNTBLANK(S4:S11)+COUNTBLANK(R6)+COUNTBLANK(R9)+COUNTBLANK(R11)+COUNTBLANK(T7:T18)+COUNTBLANK(R13:R14)+COUNTBLANK(S14:S15)+COUNTBLANK(R17:S18)</f>
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3</v>
+      </c>
+      <c r="H9" s="13">
+        <v>3</v>
+      </c>
+      <c r="I9" s="16">
+        <v>3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16">
+        <v>2</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2</v>
+      </c>
+      <c r="M9" s="9">
+        <v>2</v>
+      </c>
+      <c r="N9" s="6">
+        <v>2</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>2</v>
+      </c>
+      <c r="R9" s="14">
+        <v>2</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0</v>
+      </c>
+      <c r="U9" t="s">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <f>SUM(L6:L8,J7:K8,I9:J10)</f>
+        <v>24</v>
+      </c>
+      <c r="W9">
+        <f>COUNTBLANK(L6:L8)+COUNTBLANK(J7:K8)+COUNTBLANK(I9:J10)</f>
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
+      <c r="AB9">
+        <v>2</v>
+      </c>
+      <c r="AC9">
+        <v>7</v>
+      </c>
+      <c r="AD9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
+      <c r="G10" s="16">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="7">
+        <v>3</v>
+      </c>
+      <c r="J10" s="9">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6">
+        <v>2</v>
+      </c>
+      <c r="L10" s="14">
+        <v>3</v>
+      </c>
+      <c r="M10" s="14">
+        <v>3</v>
+      </c>
+      <c r="N10" s="16">
+        <v>3</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>2</v>
+      </c>
+      <c r="R10" s="11">
+        <v>2</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0</v>
+      </c>
+      <c r="U10" t="s">
+        <v>11</v>
+      </c>
+      <c r="V10">
+        <f>SUM(M6:N6,N7:N11,L10:M10,O10:P10,P9,P11)</f>
+        <v>24</v>
+      </c>
+      <c r="W10">
+        <f>COUNTBLANK(M6:N6)+COUNTBLANK(N7:N11)+COUNTBLANK(L10:M10)+COUNTBLANK(O10:P10)+COUNTBLANK(P9)+COUNTBLANK(P11)</f>
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>3</v>
+      </c>
+      <c r="AB10">
+        <v>2</v>
+      </c>
+      <c r="AC10">
+        <v>2</v>
+      </c>
+      <c r="AD10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
+      </c>
+      <c r="K11" s="9">
+        <v>2</v>
+      </c>
+      <c r="L11" s="10">
+        <v>3</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="13">
+        <v>3</v>
+      </c>
+      <c r="O11" s="15">
+        <v>2</v>
+      </c>
+      <c r="P11" s="13">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>2</v>
+      </c>
+      <c r="R11" s="7">
+        <v>2</v>
+      </c>
+      <c r="S11" s="8">
+        <v>2</v>
+      </c>
+      <c r="T11" s="6">
+        <v>2</v>
+      </c>
+      <c r="U11" t="s">
+        <v>12</v>
+      </c>
+      <c r="V11">
+        <f>SUM(M7:M9,K9:L9,K10:K11,J11:J12,I12:I13,H13)</f>
+        <v>24</v>
+      </c>
+      <c r="W11">
+        <f>COUNTBLANK(M7:M9)+COUNTBLANK(K9:L9)+COUNTBLANK(K10:K11)+COUNTBLANK(J11:J12)+COUNTBLANK(I12:I13)+COUNTBLANK(H13)</f>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>2</v>
+      </c>
+      <c r="AB11">
+        <v>1</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11">
+        <v>6</v>
+      </c>
+      <c r="AE11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5">
+        <v>2</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>2</v>
+      </c>
+      <c r="I12" s="16">
+        <v>2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>2</v>
+      </c>
+      <c r="K12" s="16">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3">
+        <v>3</v>
+      </c>
+      <c r="M12" s="8">
+        <v>3</v>
+      </c>
+      <c r="N12" s="6">
+        <v>3</v>
+      </c>
+      <c r="O12" s="8">
+        <v>2</v>
+      </c>
+      <c r="P12" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>2</v>
+      </c>
+      <c r="R12" s="8">
+        <v>2</v>
+      </c>
+      <c r="S12" s="6">
+        <v>2</v>
+      </c>
+      <c r="T12" s="6">
+        <v>2</v>
+      </c>
+      <c r="U12" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12">
+        <f>SUM(F8:F14,G9:G13,H10:H12,I11)</f>
+        <v>24</v>
+      </c>
+      <c r="W12">
+        <f>COUNTBLANK(F8:F14)+COUNTBLANK(G9:G13)+COUNTBLANK(H10:H12)+COUNTBLANK(I11)</f>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>2</v>
+      </c>
+      <c r="AB12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+      <c r="J13" s="16">
+        <v>2</v>
+      </c>
+      <c r="K13" s="16">
+        <v>2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3">
+        <v>3</v>
+      </c>
+      <c r="P13" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>3</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <v>2</v>
+      </c>
+      <c r="T13" s="6">
+        <v>2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13">
+        <f>SUM(Q8:Q12,O11:O12,P12,R10,R12:S12,S13)</f>
+        <v>24</v>
+      </c>
+      <c r="W13">
+        <f>COUNTBLANK(Q8:Q12)+COUNTBLANK(O11:O12)+COUNTBLANK(P12)+COUNTBLANK(R10)+COUNTBLANK(R12:S12)+COUNTBLANK(S13)</f>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>7</v>
+      </c>
+      <c r="AB13">
+        <v>3</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2</v>
+      </c>
+      <c r="I14" s="5">
+        <v>2</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+      <c r="M14" s="8">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3">
+        <v>3</v>
+      </c>
+      <c r="O14" s="7">
+        <v>3</v>
+      </c>
+      <c r="P14" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>3</v>
+      </c>
+      <c r="R14" s="7">
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <v>2</v>
+      </c>
+      <c r="T14" s="6">
+        <v>2</v>
+      </c>
+      <c r="U14" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14">
+        <f>SUM(K12:L13,G14:K15,J13,F15,G16)</f>
+        <v>24</v>
+      </c>
+      <c r="W14">
+        <f>COUNTBLANK(K12:L13)+COUNTBLANK(G14:K15)+COUNTBLANK(J13)+COUNTBLANK(F15)+COUNTBLANK(G16)</f>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2</v>
+      </c>
+      <c r="I15" s="8">
+        <v>2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="9">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
+        <v>3</v>
+      </c>
+      <c r="M15" s="6">
+        <v>3</v>
+      </c>
+      <c r="N15" s="9">
+        <v>3</v>
+      </c>
+      <c r="O15" s="16">
+        <v>3</v>
+      </c>
+      <c r="P15" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>3</v>
+      </c>
+      <c r="R15" s="6">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="6">
+        <v>0</v>
+      </c>
+      <c r="U15" t="s">
+        <v>16</v>
+      </c>
+      <c r="V15">
+        <f>SUM(P13:Q13,O15:R15,N16:O16,R16:S16,Q14)</f>
+        <v>24</v>
+      </c>
+      <c r="W15">
+        <f>COUNTBLANK(P13:Q13)+COUNTBLANK(O15:R15)+COUNTBLANK(N16:O16)+COUNTBLANK(R16:S16)+COUNTBLANK(Q14)</f>
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB15">
+        <f>SUM(AA9:AF14)</f>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>3</v>
+      </c>
+      <c r="K16" s="7">
+        <v>3</v>
+      </c>
+      <c r="L16" s="9">
+        <v>3</v>
+      </c>
+      <c r="M16" s="6">
+        <v>3</v>
+      </c>
+      <c r="N16" s="8">
+        <v>3</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="8">
+        <v>1</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1</v>
+      </c>
+      <c r="T16" s="6">
+        <v>0</v>
+      </c>
+      <c r="U16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V16">
+        <f>SUM(M15:M16,K17:P17,P16,Q16:Q18)</f>
+        <v>24</v>
+      </c>
+      <c r="W16">
+        <f>COUNTBLANK(M15:M16)+COUNTBLANK(K17:P17)+COUNTBLANK(P16)+COUNTBLANK(Q16:Q18)</f>
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB16">
+        <f>PRODUCT(AA9:AD11, AE11, AA12:AB13, AC13:AF13, AD14)</f>
+        <v>346816512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>1</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1</v>
+      </c>
+      <c r="H17" s="12">
+        <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>3</v>
+      </c>
+      <c r="J17" s="6">
+        <v>3</v>
+      </c>
+      <c r="K17" s="7">
+        <v>3</v>
+      </c>
+      <c r="L17" s="8">
+        <v>3</v>
+      </c>
+      <c r="M17" s="8">
+        <v>3</v>
+      </c>
+      <c r="N17" s="8">
+        <v>3</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="16">
+        <v>0</v>
+      </c>
+      <c r="S17" s="16">
+        <v>1</v>
+      </c>
+      <c r="T17" s="6">
+        <v>0</v>
+      </c>
+      <c r="U17" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17">
+        <f>SUM(J16,I17:J17,J18:P18)</f>
+        <v>24</v>
+      </c>
+      <c r="W17">
+        <f>COUNTBLANK(J16)+COUNTBLANK(I17:J17)+COUNTBLANK(J18:P18)</f>
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <v>3</v>
+      </c>
+      <c r="J18" s="8">
+        <v>3</v>
+      </c>
+      <c r="K18" s="8">
+        <v>3</v>
+      </c>
+      <c r="L18" s="8">
+        <v>3</v>
+      </c>
+      <c r="M18" s="8">
+        <v>3</v>
+      </c>
+      <c r="N18" s="8">
+        <v>3</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>1</v>
+      </c>
+      <c r="R18" s="8">
+        <v>0</v>
+      </c>
+      <c r="S18" s="8">
+        <v>0</v>
+      </c>
+      <c r="T18" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:T19" si="3">D21-SUM(D2:D18)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:T20" si="4">COUNTBLANK(D2:D18)</f>
+        <v>0</v>
+      </c>
       <c r="E20">
-        <f>COUNTBLANK(E2:E18)</f>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F20">
-        <f>COUNTBLANK(F2:F18)</f>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G20">
-        <f>COUNTBLANK(G2:G18)</f>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="H20">
-        <f>COUNTBLANK(H2:H18)</f>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="I20">
-        <f>COUNTBLANK(I2:I18)</f>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="J20">
-        <f>COUNTBLANK(J2:J18)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K20">
-        <f>COUNTBLANK(K2:K18)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L20">
-        <f>COUNTBLANK(L2:L18)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M20">
-        <f>COUNTBLANK(M2:M18)</f>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="N20">
-        <f>COUNTBLANK(N2:N18)</f>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="O20">
-        <f>COUNTBLANK(O2:O18)</f>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="P20">
-        <f>COUNTBLANK(P2:P18)</f>
-        <v>13</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <f>COUNTBLANK(Q2:Q18)</f>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="R20">
-        <f>COUNTBLANK(R2:R18)</f>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="S20">
-        <f>COUNTBLANK(S2:S18)</f>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="T20">
-        <f>COUNTBLANK(T2:T18)</f>
-        <v>17</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.45">
